--- a/Vocabular.xlsx
+++ b/Vocabular.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awdeshp/Desktop/HR/GermanTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awdeshp/Desktop/VER/Code/flashcards_german/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00F45A-277A-0547-9713-9758E94F3BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A29EF-A01C-FA40-B1D0-00FC77340E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13320" yWindow="760" windowWidth="21240" windowHeight="20060" xr2:uid="{8C61D36E-538C-1840-BF80-FF67F9F1A14C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="447">
   <si>
     <t>German</t>
   </si>
@@ -1329,6 +1329,57 @@
   </si>
   <si>
     <t>I nearly choked on a fishbone.</t>
+  </si>
+  <si>
+    <t>der Anfall</t>
+  </si>
+  <si>
+    <t>seizure, attack (med)</t>
+  </si>
+  <si>
+    <t>Der Patient hat durch die starke Medikamentdosis einen Anfall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patient had a seizure because of the strong medical dose. </t>
+  </si>
+  <si>
+    <t>bedrohen</t>
+  </si>
+  <si>
+    <t>bedrohend</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>lebensbedrohlich</t>
+  </si>
+  <si>
+    <t>life-threatening</t>
+  </si>
+  <si>
+    <t>der Waldbrand</t>
+  </si>
+  <si>
+    <t>wildfire, forestfire</t>
+  </si>
+  <si>
+    <t>Jedes Jahr bedrohen Waldbrände Kalifornien.</t>
+  </si>
+  <si>
+    <t>Wildfires threaten California every year.</t>
+  </si>
+  <si>
+    <t>The fact that they hadn't prepared a Plan B took its toll.</t>
+  </si>
+  <si>
+    <t>Vitamin D can be obtained from sunshine, among other things.</t>
+  </si>
+  <si>
+    <t>Most infections can be avoided by good preventive measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It takes considerable efforts to maintain a good relationship. </t>
   </si>
 </sst>
 </file>
@@ -1384,19 +1435,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4EFC4A-53BD-EF42-9061-FBB6EFA71DFF}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D133" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1814,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1774,7 +1825,7 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1794,7 +1845,7 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1805,7 +1856,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1861,8 +1912,11 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1872,7 +1926,8 @@
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1903,40 +1958,40 @@
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1947,7 +2002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1958,7 +2013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1969,36 +2024,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2008,40 +2063,40 @@
       <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2051,26 +2106,29 @@
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -2079,7 +2137,7 @@
       <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2088,7 +2146,7 @@
       <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2099,7 +2157,7 @@
       <c r="C35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -2163,10 +2221,10 @@
       <c r="C41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2177,8 +2235,8 @@
       <c r="C42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -2187,8 +2245,8 @@
       <c r="C43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2208,7 +2266,7 @@
       <c r="C45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2219,7 +2277,7 @@
       <c r="C46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2272,10 +2330,10 @@
       <c r="C51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2286,8 +2344,8 @@
       <c r="C52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2329,7 +2387,7 @@
       <c r="C56" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2340,7 +2398,7 @@
       <c r="C57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2352,7 +2410,7 @@
       <c r="C58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2363,7 +2421,7 @@
       <c r="C59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -2420,7 +2478,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
@@ -2431,7 +2489,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>184</v>
       </c>
@@ -2442,54 +2500,61 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>196</v>
       </c>
@@ -2500,47 +2565,47 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>209</v>
       </c>
@@ -2551,7 +2616,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>211</v>
       </c>
@@ -2560,7 +2625,7 @@
       </c>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -2571,27 +2636,31 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>222</v>
       </c>
@@ -2602,7 +2671,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>225</v>
       </c>
@@ -2613,7 +2682,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>228</v>
       </c>
@@ -2624,47 +2693,47 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>241</v>
       </c>
@@ -2675,7 +2744,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>244</v>
       </c>
@@ -2686,7 +2755,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>247</v>
       </c>
@@ -2697,27 +2766,27 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>255</v>
       </c>
@@ -2728,25 +2797,25 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -2755,7 +2824,7 @@
       <c r="C97" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="6" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2766,7 +2835,7 @@
       <c r="C98" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -2833,10 +2902,10 @@
       <c r="C104" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="4" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2847,8 +2916,8 @@
       <c r="C105" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -2857,8 +2926,8 @@
       <c r="C106" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -2867,8 +2936,8 @@
       <c r="C107" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -2932,7 +3001,7 @@
       <c r="C113" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2943,7 +3012,7 @@
       <c r="C114" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -2952,7 +3021,7 @@
       <c r="C115" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="6" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2963,7 +3032,7 @@
       <c r="C116" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
@@ -3005,10 +3074,10 @@
       <c r="C120" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="4" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3019,8 +3088,8 @@
       <c r="C121" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -3029,8 +3098,8 @@
       <c r="C122" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -3083,7 +3152,7 @@
       <c r="C127" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3094,7 +3163,7 @@
       <c r="C128" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
@@ -3103,7 +3172,7 @@
       <c r="C129" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="5" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3114,7 +3183,7 @@
       <c r="C130" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D130" s="8"/>
+      <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -3123,7 +3192,7 @@
       <c r="C131" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3134,7 +3203,7 @@
       <c r="C132" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
@@ -3143,7 +3212,7 @@
       <c r="C133" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D133" s="6"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
@@ -3188,7 +3257,7 @@
       <c r="C137" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3199,7 +3268,7 @@
       <c r="C138" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
@@ -3208,7 +3277,7 @@
       <c r="C139" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="4" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3219,7 +3288,7 @@
       <c r="C140" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
@@ -3228,10 +3297,10 @@
       <c r="C141" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="4" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3242,8 +3311,8 @@
       <c r="C142" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
@@ -3277,10 +3346,10 @@
       <c r="C145" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3291,8 +3360,8 @@
       <c r="C146" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
@@ -3383,13 +3452,94 @@
         <v>429</v>
       </c>
     </row>
+    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="D141:D142"/>
+  <mergeCells count="47">
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E104:E107"/>
     <mergeCell ref="E120:E122"/>
@@ -3406,27 +3556,11 @@
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D141:D142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
